--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20181107-turnout/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA20D30E-E084-AD4C-9C79-F16808C103EE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4730C8-4E6E-DF4F-B2EB-B53291C098A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1380" windowWidth="28040" windowHeight="17440" activeTab="3"/>
+    <workbookView xWindow="920" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="turnout" sheetId="1" r:id="rId1"/>
-    <sheet name="national" sheetId="2" r:id="rId2"/>
-    <sheet name="sources" sheetId="3" r:id="rId3"/>
-    <sheet name="layout" sheetId="4" r:id="rId4"/>
+    <sheet name="2018national" sheetId="5" r:id="rId1"/>
+    <sheet name="turnout" sheetId="1" r:id="rId2"/>
+    <sheet name="2016national" sheetId="2" r:id="rId3"/>
+    <sheet name="sources" sheetId="3" r:id="rId4"/>
+    <sheet name="layout" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="218">
   <si>
     <t>year</t>
   </si>
@@ -653,12 +654,36 @@
   </si>
   <si>
     <t>OverseasEligible</t>
+  </si>
+  <si>
+    <t>Predicted 2018 Turnout Rate</t>
+  </si>
+  <si>
+    <t>Predicted 2018 Turnout</t>
+  </si>
+  <si>
+    <t>Voting-Eligible Population (VEP)</t>
+  </si>
+  <si>
+    <t>Voting-Age Population (VAP)</t>
+  </si>
+  <si>
+    <t>% Non-citizen</t>
+  </si>
+  <si>
+    <t>Total Ineligible Felon</t>
+  </si>
+  <si>
+    <t>Overseas Eligible</t>
+  </si>
+  <si>
+    <t>State Abv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1136,10 +1161,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1494,7 +1520,1883 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88671AB-1DC8-A042-9816-25EC630C9433}">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>0.64216297677525458</v>
+      </c>
+      <c r="C2">
+        <v>2610000</v>
+      </c>
+      <c r="D2">
+        <v>4064388.7835244243</v>
+      </c>
+      <c r="E2">
+        <v>4335998.3329999996</v>
+      </c>
+      <c r="F2">
+        <v>4.5934268E-2</v>
+      </c>
+      <c r="G2">
+        <v>10158</v>
+      </c>
+      <c r="H2">
+        <v>96852</v>
+      </c>
+      <c r="I2">
+        <v>7075</v>
+      </c>
+      <c r="J2">
+        <v>72438.639999999985</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.62135972022010011</v>
+      </c>
+      <c r="C3">
+        <v>2550000</v>
+      </c>
+      <c r="D3">
+        <v>4103902.9679888659</v>
+      </c>
+      <c r="E3">
+        <v>4445013</v>
+      </c>
+      <c r="F3">
+        <v>7.0269317999999997E-2</v>
+      </c>
+      <c r="G3">
+        <v>18576</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10186</v>
+      </c>
+      <c r="J3">
+        <v>28762</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>0.61216713007928958</v>
+      </c>
+      <c r="C4">
+        <v>2655000</v>
+      </c>
+      <c r="D4">
+        <v>4337050.895980183</v>
+      </c>
+      <c r="E4">
+        <v>4549459</v>
+      </c>
+      <c r="F4">
+        <v>3.1599224000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>22889</v>
+      </c>
+      <c r="H4">
+        <v>44489</v>
+      </c>
+      <c r="I4">
+        <v>20401</v>
+      </c>
+      <c r="J4">
+        <v>68648.73</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>0.61191487975566117</v>
+      </c>
+      <c r="C5">
+        <v>1905000</v>
+      </c>
+      <c r="D5">
+        <v>3113178.0955558238</v>
+      </c>
+      <c r="E5">
+        <v>3339282.3330000001</v>
+      </c>
+      <c r="F5">
+        <v>6.3168734000000004E-2</v>
+      </c>
+      <c r="G5">
+        <v>15166</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>15166</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>0.60240196006369551</v>
+      </c>
+      <c r="C6">
+        <v>495000</v>
+      </c>
+      <c r="D6">
+        <v>821710.47376349964</v>
+      </c>
+      <c r="E6">
+        <v>835370.66669999994</v>
+      </c>
+      <c r="F6">
+        <v>1.180936E-2</v>
+      </c>
+      <c r="G6">
+        <v>3795</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3795</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>0.59467061859876214</v>
+      </c>
+      <c r="C7">
+        <v>1375000</v>
+      </c>
+      <c r="D7">
+        <v>2312204.3648969042</v>
+      </c>
+      <c r="E7">
+        <v>2431468</v>
+      </c>
+      <c r="F7">
+        <v>3.6048122000000002E-2</v>
+      </c>
+      <c r="G7">
+        <v>8888</v>
+      </c>
+      <c r="H7">
+        <v>29254</v>
+      </c>
+      <c r="I7">
+        <v>6051</v>
+      </c>
+      <c r="J7">
+        <v>31613.78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>0.58713562453506751</v>
+      </c>
+      <c r="C8">
+        <v>630000</v>
+      </c>
+      <c r="D8">
+        <v>1073005.9183495727</v>
+      </c>
+      <c r="E8">
+        <v>1092942.3330000001</v>
+      </c>
+      <c r="F8">
+        <v>1.8241048999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>0.57612470624005874</v>
+      </c>
+      <c r="C9">
+        <v>325000</v>
+      </c>
+      <c r="D9">
+        <v>564113.97824098787</v>
+      </c>
+      <c r="E9">
+        <v>578459.66669999994</v>
+      </c>
+      <c r="F9">
+        <v>2.1703653999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>1791</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1791</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10">
+        <v>0.57495852474869347</v>
+      </c>
+      <c r="C10">
+        <v>300000</v>
+      </c>
+      <c r="D10">
+        <v>521776.76664786541</v>
+      </c>
+      <c r="E10">
+        <v>554425.66669999994</v>
+      </c>
+      <c r="F10">
+        <v>4.1026113000000003E-2</v>
+      </c>
+      <c r="G10">
+        <v>4317</v>
+      </c>
+      <c r="H10">
+        <v>6621</v>
+      </c>
+      <c r="I10">
+        <v>1812</v>
+      </c>
+      <c r="J10">
+        <v>9902.9699999999993</v>
+      </c>
+      <c r="L10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.56562495525372869</v>
+      </c>
+      <c r="C11">
+        <v>4250000</v>
+      </c>
+      <c r="D11">
+        <v>7513812.7491095755</v>
+      </c>
+      <c r="E11">
+        <v>7841291.3329999996</v>
+      </c>
+      <c r="F11">
+        <v>3.6598128000000001E-2</v>
+      </c>
+      <c r="G11">
+        <v>40502</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>40502</v>
+      </c>
+      <c r="L11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>0.5524862674216896</v>
+      </c>
+      <c r="C12">
+        <v>275000</v>
+      </c>
+      <c r="D12">
+        <v>497749.92830745602</v>
+      </c>
+      <c r="E12">
+        <v>508992</v>
+      </c>
+      <c r="F12">
+        <v>2.2086932E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>0.55028681594873441</v>
+      </c>
+      <c r="C13">
+        <v>3950000</v>
+      </c>
+      <c r="D13">
+        <v>7178074.9338686466</v>
+      </c>
+      <c r="E13">
+        <v>8063141</v>
+      </c>
+      <c r="F13">
+        <v>7.1602193999999994E-2</v>
+      </c>
+      <c r="G13">
+        <v>51092</v>
+      </c>
+      <c r="H13">
+        <v>410964</v>
+      </c>
+      <c r="I13">
+        <v>22386</v>
+      </c>
+      <c r="J13">
+        <v>307727.48</v>
+      </c>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0.54819295808766511</v>
+      </c>
+      <c r="C14">
+        <v>8300000</v>
+      </c>
+      <c r="D14">
+        <v>15140654.175774168</v>
+      </c>
+      <c r="E14">
+        <v>17168711.670000002</v>
+      </c>
+      <c r="F14">
+        <v>0.105344356</v>
+      </c>
+      <c r="G14">
+        <v>92847</v>
+      </c>
+      <c r="H14">
+        <v>214066</v>
+      </c>
+      <c r="I14">
+        <v>4566</v>
+      </c>
+      <c r="J14">
+        <v>219430.62</v>
+      </c>
+      <c r="L14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>0.54224798647193551</v>
+      </c>
+      <c r="C15">
+        <v>3330000</v>
+      </c>
+      <c r="D15">
+        <v>6141101.6418266529</v>
+      </c>
+      <c r="E15">
+        <v>6673762.6670000004</v>
+      </c>
+      <c r="F15">
+        <v>6.8834340999999993E-2</v>
+      </c>
+      <c r="G15">
+        <v>36959</v>
+      </c>
+      <c r="H15">
+        <v>60821</v>
+      </c>
+      <c r="I15">
+        <v>1650</v>
+      </c>
+      <c r="J15">
+        <v>73276.97</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0.54123195338564323</v>
+      </c>
+      <c r="C16">
+        <v>575000</v>
+      </c>
+      <c r="D16">
+        <v>1062391.0809462059</v>
+      </c>
+      <c r="E16">
+        <v>1096918</v>
+      </c>
+      <c r="F16">
+        <v>2.8907282999999999E-2</v>
+      </c>
+      <c r="G16">
+        <v>2818</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>2818</v>
+      </c>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <v>0.53871112524471565</v>
+      </c>
+      <c r="C17">
+        <v>345000</v>
+      </c>
+      <c r="D17">
+        <v>640417.44050353486</v>
+      </c>
+      <c r="E17">
+        <v>663320.66669999994</v>
+      </c>
+      <c r="F17">
+        <v>2.4832976E-2</v>
+      </c>
+      <c r="G17">
+        <v>3744</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2687</v>
+      </c>
+      <c r="J17">
+        <v>6431</v>
+      </c>
+      <c r="L17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>0.5354589359136791</v>
+      </c>
+      <c r="C18">
+        <v>2700000</v>
+      </c>
+      <c r="D18">
+        <v>5042403.4765483206</v>
+      </c>
+      <c r="E18">
+        <v>5546080</v>
+      </c>
+      <c r="F18">
+        <v>8.9233570999999998E-2</v>
+      </c>
+      <c r="G18">
+        <v>8780</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>8780</v>
+      </c>
+      <c r="L18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19">
+        <v>0.53165009299522037</v>
+      </c>
+      <c r="C19">
+        <v>2430000</v>
+      </c>
+      <c r="D19">
+        <v>4570675.3972520158</v>
+      </c>
+      <c r="E19">
+        <v>4764891.6670000004</v>
+      </c>
+      <c r="F19">
+        <v>2.5079865E-2</v>
+      </c>
+      <c r="G19">
+        <v>31956</v>
+      </c>
+      <c r="H19">
+        <v>43799</v>
+      </c>
+      <c r="I19">
+        <v>17792</v>
+      </c>
+      <c r="J19">
+        <v>74713.429999999993</v>
+      </c>
+      <c r="L19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20">
+        <v>0.5259784519985149</v>
+      </c>
+      <c r="C20">
+        <v>1375000</v>
+      </c>
+      <c r="D20">
+        <v>2614175.5328103863</v>
+      </c>
+      <c r="E20">
+        <v>2856023.3330000001</v>
+      </c>
+      <c r="F20">
+        <v>7.8428560999999994E-2</v>
+      </c>
+      <c r="G20">
+        <v>14475</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3379</v>
+      </c>
+      <c r="J20">
+        <v>17854</v>
+      </c>
+      <c r="L20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>0.51095544835422291</v>
+      </c>
+      <c r="C21">
+        <v>363000</v>
+      </c>
+      <c r="D21">
+        <v>710433.75928217534</v>
+      </c>
+      <c r="E21">
+        <v>769716.33330000006</v>
+      </c>
+      <c r="F21">
+        <v>5.6990377000000002E-2</v>
+      </c>
+      <c r="G21">
+        <v>6254</v>
+      </c>
+      <c r="H21">
+        <v>15395</v>
+      </c>
+      <c r="I21">
+        <v>387</v>
+      </c>
+      <c r="J21">
+        <v>15416.15</v>
+      </c>
+      <c r="L21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22">
+        <v>0.50668536743873627</v>
+      </c>
+      <c r="C22">
+        <v>1050000</v>
+      </c>
+      <c r="D22">
+        <v>2072291.9339622657</v>
+      </c>
+      <c r="E22">
+        <v>2211695.6669999999</v>
+      </c>
+      <c r="F22">
+        <v>5.2207885000000002E-2</v>
+      </c>
+      <c r="G22">
+        <v>9613</v>
+      </c>
+      <c r="H22">
+        <v>16654</v>
+      </c>
+      <c r="I22">
+        <v>4830</v>
+      </c>
+      <c r="J22">
+        <v>23935.78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23">
+        <v>0.50575954060604833</v>
+      </c>
+      <c r="C23">
+        <v>690000</v>
+      </c>
+      <c r="D23">
+        <v>1364284.6938155186</v>
+      </c>
+      <c r="E23">
+        <v>1458088.3330000001</v>
+      </c>
+      <c r="F23">
+        <v>5.4830635000000003E-2</v>
+      </c>
+      <c r="G23">
+        <v>5079</v>
+      </c>
+      <c r="H23">
+        <v>13489</v>
+      </c>
+      <c r="I23">
+        <v>1088</v>
+      </c>
+      <c r="J23">
+        <v>13855.73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24">
+        <v>0.50469412831735316</v>
+      </c>
+      <c r="C24">
+        <v>4925000</v>
+      </c>
+      <c r="D24">
+        <v>9758385.7700503021</v>
+      </c>
+      <c r="E24">
+        <v>10178260.67</v>
+      </c>
+      <c r="F24">
+        <v>3.6526564999999997E-2</v>
+      </c>
+      <c r="G24">
+        <v>48098</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>48098</v>
+      </c>
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>0.49924741913340986</v>
+      </c>
+      <c r="C25">
+        <v>2150000</v>
+      </c>
+      <c r="D25">
+        <v>4306481.951838539</v>
+      </c>
+      <c r="E25">
+        <v>4742399</v>
+      </c>
+      <c r="F25">
+        <v>8.7832139000000004E-2</v>
+      </c>
+      <c r="G25">
+        <v>19382</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>19382</v>
+      </c>
+      <c r="L25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26">
+        <v>0.4984767148467602</v>
+      </c>
+      <c r="C26">
+        <v>2650000</v>
+      </c>
+      <c r="D26">
+        <v>5316196.16538087</v>
+      </c>
+      <c r="E26">
+        <v>5903135</v>
+      </c>
+      <c r="F26">
+        <v>8.5780038000000003E-2</v>
+      </c>
+      <c r="G26">
+        <v>18335</v>
+      </c>
+      <c r="H26">
+        <v>89317</v>
+      </c>
+      <c r="I26">
+        <v>11322</v>
+      </c>
+      <c r="J26">
+        <v>80567.69</v>
+      </c>
+      <c r="L26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>0.49776459754996588</v>
+      </c>
+      <c r="C27">
+        <v>4400000</v>
+      </c>
+      <c r="D27">
+        <v>8839519.76829434</v>
+      </c>
+      <c r="E27">
+        <v>9113230</v>
+      </c>
+      <c r="F27">
+        <v>2.4365042E-2</v>
+      </c>
+      <c r="G27">
+        <v>51666</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>51666</v>
+      </c>
+      <c r="L27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>0.49417002675410371</v>
+      </c>
+      <c r="C28">
+        <v>605000</v>
+      </c>
+      <c r="D28">
+        <v>1224274.9807669835</v>
+      </c>
+      <c r="E28">
+        <v>1314172.3330000001</v>
+      </c>
+      <c r="F28">
+        <v>4.4454765E-2</v>
+      </c>
+      <c r="G28">
+        <v>7949</v>
+      </c>
+      <c r="H28">
+        <v>32409</v>
+      </c>
+      <c r="I28">
+        <v>5054</v>
+      </c>
+      <c r="J28">
+        <v>31476.129999999997</v>
+      </c>
+      <c r="L28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>0.49161868414945492</v>
+      </c>
+      <c r="C29">
+        <v>3725000</v>
+      </c>
+      <c r="D29">
+        <v>7577010.6387323113</v>
+      </c>
+      <c r="E29">
+        <v>8117590.3329999996</v>
+      </c>
+      <c r="F29">
+        <v>5.5002908000000003E-2</v>
+      </c>
+      <c r="G29">
+        <v>34357</v>
+      </c>
+      <c r="H29">
+        <v>82466</v>
+      </c>
+      <c r="I29">
+        <v>12726</v>
+      </c>
+      <c r="J29">
+        <v>94088.62</v>
+      </c>
+      <c r="L29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>0.48903009980518602</v>
+      </c>
+      <c r="C30">
+        <v>4410000</v>
+      </c>
+      <c r="D30">
+        <v>9017849.8251064774</v>
+      </c>
+      <c r="E30">
+        <v>9902219.3330000006</v>
+      </c>
+      <c r="F30">
+        <v>8.5067041999999995E-2</v>
+      </c>
+      <c r="G30">
+        <v>42017</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>42017</v>
+      </c>
+      <c r="L30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31">
+        <v>0.48873619587138112</v>
+      </c>
+      <c r="C31">
+        <v>2400000</v>
+      </c>
+      <c r="D31">
+        <v>4910624.6279160362</v>
+      </c>
+      <c r="E31">
+        <v>5519036</v>
+      </c>
+      <c r="F31">
+        <v>9.4079249000000004E-2</v>
+      </c>
+      <c r="G31">
+        <v>37582</v>
+      </c>
+      <c r="H31">
+        <v>77373</v>
+      </c>
+      <c r="I31">
+        <v>7500</v>
+      </c>
+      <c r="J31">
+        <v>89184.609999999986</v>
+      </c>
+      <c r="L31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32">
+        <v>0.48458214880571138</v>
+      </c>
+      <c r="C32">
+        <v>114223000</v>
+      </c>
+      <c r="D32">
+        <v>235714419.69439247</v>
+      </c>
+      <c r="E32">
+        <v>255152702.69999999</v>
+      </c>
+      <c r="F32">
+        <v>8.2729255000000002E-2</v>
+      </c>
+      <c r="G32">
+        <v>1416810</v>
+      </c>
+      <c r="H32">
+        <v>2126035</v>
+      </c>
+      <c r="I32">
+        <v>494442</v>
+      </c>
+      <c r="J32">
+        <v>3123092</v>
+      </c>
+      <c r="K32">
+        <v>4793402</v>
+      </c>
+      <c r="L32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33">
+        <v>0.4837310682131204</v>
+      </c>
+      <c r="C33">
+        <v>204000</v>
+      </c>
+      <c r="D33">
+        <v>421721.93064540246</v>
+      </c>
+      <c r="E33">
+        <v>438237.3333</v>
+      </c>
+      <c r="F33">
+        <v>2.4394961E-2</v>
+      </c>
+      <c r="G33">
+        <v>2323</v>
+      </c>
+      <c r="H33">
+        <v>4666</v>
+      </c>
+      <c r="I33">
+        <v>842</v>
+      </c>
+      <c r="J33">
+        <v>5824.62</v>
+      </c>
+      <c r="L33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34">
+        <v>0.47591697315091619</v>
+      </c>
+      <c r="C34">
+        <v>1580000</v>
+      </c>
+      <c r="D34">
+        <v>3319906.8096673498</v>
+      </c>
+      <c r="E34">
+        <v>3469060.6669999999</v>
+      </c>
+      <c r="F34">
+        <v>2.4007180999999999E-2</v>
+      </c>
+      <c r="G34">
+        <v>22868</v>
+      </c>
+      <c r="H34">
+        <v>48457</v>
+      </c>
+      <c r="I34">
+        <v>15383</v>
+      </c>
+      <c r="J34">
+        <v>65871.489999999991</v>
+      </c>
+      <c r="L34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>0.47499895969476236</v>
+      </c>
+      <c r="C35">
+        <v>975000</v>
+      </c>
+      <c r="D35">
+        <v>2052636.074459072</v>
+      </c>
+      <c r="E35">
+        <v>2380512</v>
+      </c>
+      <c r="F35">
+        <v>0.12646449400000001</v>
+      </c>
+      <c r="G35">
+        <v>13742</v>
+      </c>
+      <c r="H35">
+        <v>13724</v>
+      </c>
+      <c r="I35">
+        <v>5261</v>
+      </c>
+      <c r="J35">
+        <v>26825.68</v>
+      </c>
+      <c r="L35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36">
+        <v>0.47261374372932091</v>
+      </c>
+      <c r="C36">
+        <v>375000</v>
+      </c>
+      <c r="D36">
+        <v>793459.78608436952</v>
+      </c>
+      <c r="E36">
+        <v>856988.33330000006</v>
+      </c>
+      <c r="F36">
+        <v>7.0585030000000007E-2</v>
+      </c>
+      <c r="G36">
+        <v>3038</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3038</v>
+      </c>
+      <c r="L36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37">
+        <v>0.47099735278066951</v>
+      </c>
+      <c r="C37">
+        <v>1715000</v>
+      </c>
+      <c r="D37">
+        <v>3641209.4247982497</v>
+      </c>
+      <c r="E37">
+        <v>3802714</v>
+      </c>
+      <c r="F37">
+        <v>2.4856375E-2</v>
+      </c>
+      <c r="G37">
+        <v>28680</v>
+      </c>
+      <c r="H37">
+        <v>52177</v>
+      </c>
+      <c r="I37">
+        <v>8562</v>
+      </c>
+      <c r="J37">
+        <v>66982.89</v>
+      </c>
+      <c r="L37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38">
+        <v>0.47020582088702867</v>
+      </c>
+      <c r="C38">
+        <v>2875000</v>
+      </c>
+      <c r="D38">
+        <v>6114343.7028839877</v>
+      </c>
+      <c r="E38">
+        <v>7074259.3329999996</v>
+      </c>
+      <c r="F38">
+        <v>0.11960939800000001</v>
+      </c>
+      <c r="G38">
+        <v>18504</v>
+      </c>
+      <c r="H38">
+        <v>140589</v>
+      </c>
+      <c r="I38">
+        <v>15128</v>
+      </c>
+      <c r="J38">
+        <v>113767.73</v>
+      </c>
+      <c r="L38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39">
+        <v>0.4655098189828919</v>
+      </c>
+      <c r="C39">
+        <v>690000</v>
+      </c>
+      <c r="D39">
+        <v>1482245.8557535999</v>
+      </c>
+      <c r="E39">
+        <v>1610112</v>
+      </c>
+      <c r="F39">
+        <v>6.8892825000000005E-2</v>
+      </c>
+      <c r="G39">
+        <v>6914</v>
+      </c>
+      <c r="H39">
+        <v>12714</v>
+      </c>
+      <c r="I39">
+        <v>2780</v>
+      </c>
+      <c r="J39">
+        <v>16940.98</v>
+      </c>
+      <c r="L39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40">
+        <v>0.46203675312098569</v>
+      </c>
+      <c r="C40">
+        <v>8350000</v>
+      </c>
+      <c r="D40">
+        <v>18072155.393693384</v>
+      </c>
+      <c r="E40">
+        <v>21390151.670000002</v>
+      </c>
+      <c r="F40">
+        <v>0.13267974299999999</v>
+      </c>
+      <c r="G40">
+        <v>155327</v>
+      </c>
+      <c r="H40">
+        <v>374285</v>
+      </c>
+      <c r="I40">
+        <v>111287</v>
+      </c>
+      <c r="J40">
+        <v>479956.44999999995</v>
+      </c>
+      <c r="L40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41">
+        <v>0.45835523533698619</v>
+      </c>
+      <c r="C41">
+        <v>11750000</v>
+      </c>
+      <c r="D41">
+        <v>25635138.630763784</v>
+      </c>
+      <c r="E41">
+        <v>30836229</v>
+      </c>
+      <c r="F41">
+        <v>0.16443970399999999</v>
+      </c>
+      <c r="G41">
+        <v>130390</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>130390</v>
+      </c>
+      <c r="L41" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42">
+        <v>0.44722175689716381</v>
+      </c>
+      <c r="C42">
+        <v>2250000</v>
+      </c>
+      <c r="D42">
+        <v>5031061.1353315152</v>
+      </c>
+      <c r="E42">
+        <v>5290992.6670000004</v>
+      </c>
+      <c r="F42">
+        <v>3.4822653000000002E-2</v>
+      </c>
+      <c r="G42">
+        <v>27906</v>
+      </c>
+      <c r="H42">
+        <v>62609</v>
+      </c>
+      <c r="I42">
+        <v>12092</v>
+      </c>
+      <c r="J42">
+        <v>75685.13</v>
+      </c>
+      <c r="L42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43">
+        <v>0.44511193488240752</v>
+      </c>
+      <c r="C43">
+        <v>1700000</v>
+      </c>
+      <c r="D43">
+        <v>3819264.0250123078</v>
+      </c>
+      <c r="E43">
+        <v>3996952.3330000001</v>
+      </c>
+      <c r="F43">
+        <v>3.3623100000000003E-2</v>
+      </c>
+      <c r="G43">
+        <v>20350</v>
+      </c>
+      <c r="H43">
+        <v>32634</v>
+      </c>
+      <c r="I43">
+        <v>4347</v>
+      </c>
+      <c r="J43">
+        <v>43298.38</v>
+      </c>
+      <c r="L43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>0.44179770717641409</v>
+      </c>
+      <c r="C44">
+        <v>2175000</v>
+      </c>
+      <c r="D44">
+        <v>4923067.6498995535</v>
+      </c>
+      <c r="E44">
+        <v>5139351.6670000004</v>
+      </c>
+      <c r="F44">
+        <v>3.7229602000000001E-2</v>
+      </c>
+      <c r="G44">
+        <v>24948</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>24948</v>
+      </c>
+      <c r="L44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45">
+        <v>0.42524534042374601</v>
+      </c>
+      <c r="C45">
+        <v>1190000</v>
+      </c>
+      <c r="D45">
+        <v>2798384.5721018263</v>
+      </c>
+      <c r="E45">
+        <v>2987069.6669999999</v>
+      </c>
+      <c r="F45">
+        <v>4.7192992000000003E-2</v>
+      </c>
+      <c r="G45">
+        <v>26691</v>
+      </c>
+      <c r="H45">
+        <v>33562</v>
+      </c>
+      <c r="I45">
+        <v>1895</v>
+      </c>
+      <c r="J45">
+        <v>47716.34</v>
+      </c>
+      <c r="L45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46">
+        <v>0.41985039145567432</v>
+      </c>
+      <c r="C46">
+        <v>590000</v>
+      </c>
+      <c r="D46">
+        <v>1405262.4744599988</v>
+      </c>
+      <c r="E46">
+        <v>1435237.6669999999</v>
+      </c>
+      <c r="F46">
+        <v>1.0848435E-2</v>
+      </c>
+      <c r="G46">
+        <v>7137</v>
+      </c>
+      <c r="H46">
+        <v>6523</v>
+      </c>
+      <c r="I46">
+        <v>3550</v>
+      </c>
+      <c r="J46">
+        <v>14405.11</v>
+      </c>
+      <c r="L46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47">
+        <v>0.40977194926138727</v>
+      </c>
+      <c r="C47">
+        <v>890000</v>
+      </c>
+      <c r="D47">
+        <v>2171939.7865183852</v>
+      </c>
+      <c r="E47">
+        <v>2319740.3330000001</v>
+      </c>
+      <c r="F47">
+        <v>3.8437223E-2</v>
+      </c>
+      <c r="G47">
+        <v>17242</v>
+      </c>
+      <c r="H47">
+        <v>30881</v>
+      </c>
+      <c r="I47">
+        <v>23792</v>
+      </c>
+      <c r="J47">
+        <v>58636.17</v>
+      </c>
+      <c r="L47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48">
+        <v>0.40879817968426341</v>
+      </c>
+      <c r="C48">
+        <v>5630000</v>
+      </c>
+      <c r="D48">
+        <v>13772076.980255511</v>
+      </c>
+      <c r="E48">
+        <v>15748183.33</v>
+      </c>
+      <c r="F48">
+        <v>0.119713132</v>
+      </c>
+      <c r="G48">
+        <v>46416</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>44426</v>
+      </c>
+      <c r="J48">
+        <v>90842</v>
+      </c>
+      <c r="L48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49">
+        <v>0.40816466856063888</v>
+      </c>
+      <c r="C49">
+        <v>216000</v>
+      </c>
+      <c r="D49">
+        <v>529198.1806306442</v>
+      </c>
+      <c r="E49">
+        <v>577553.33330000006</v>
+      </c>
+      <c r="F49">
+        <v>8.3724134000000006E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50">
+        <v>0.40658231167853276</v>
+      </c>
+      <c r="C50">
+        <v>895000</v>
+      </c>
+      <c r="D50">
+        <v>2201276.2835281389</v>
+      </c>
+      <c r="E50">
+        <v>2278270.3330000001</v>
+      </c>
+      <c r="F50">
+        <v>1.4322646E-2</v>
+      </c>
+      <c r="G50">
+        <v>19150</v>
+      </c>
+      <c r="H50">
+        <v>29067</v>
+      </c>
+      <c r="I50">
+        <v>8645</v>
+      </c>
+      <c r="J50">
+        <v>44363.19</v>
+      </c>
+      <c r="L50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51">
+        <v>0.40335177937144967</v>
+      </c>
+      <c r="C51">
+        <v>840000</v>
+      </c>
+      <c r="D51">
+        <v>2082549.3848297561</v>
+      </c>
+      <c r="E51">
+        <v>2242122</v>
+      </c>
+      <c r="F51">
+        <v>6.8563001999999998E-2</v>
+      </c>
+      <c r="G51">
+        <v>5846</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>5846</v>
+      </c>
+      <c r="L51" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52">
+        <v>0.3844776151281119</v>
+      </c>
+      <c r="C52">
+        <v>390000</v>
+      </c>
+      <c r="D52">
+        <v>1014363.3456268917</v>
+      </c>
+      <c r="E52">
+        <v>1122119.3330000001</v>
+      </c>
+      <c r="F52">
+        <v>9.1150722000000003E-2</v>
+      </c>
+      <c r="G52">
+        <v>5474</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>5474</v>
+      </c>
+      <c r="L52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53">
+        <v>0.35353831394280044</v>
+      </c>
+      <c r="C53">
+        <v>1200000</v>
+      </c>
+      <c r="D53">
+        <v>3394257.2917122357</v>
+      </c>
+      <c r="E53">
+        <v>3581751.3330000001</v>
+      </c>
+      <c r="F53">
+        <v>2.7401360999999999E-2</v>
+      </c>
+      <c r="G53">
+        <v>35543</v>
+      </c>
+      <c r="H53">
+        <v>40174</v>
+      </c>
+      <c r="I53">
+        <v>30907</v>
+      </c>
+      <c r="J53">
+        <v>89349.18</v>
+      </c>
+      <c r="L53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:L53">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2097,12 +3999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="J2:M2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4723,8 +6625,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4779,11 +6681,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/build/data/maindata.xlsx
+++ b/build/data/maindata.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/elections/20181107-turnout/build/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4730C8-4E6E-DF4F-B2EB-B53291C098A2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00EF248-15FE-5046-A0B7-AD99CA592498}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="1380" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="1740" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018national" sheetId="5" r:id="rId1"/>
-    <sheet name="turnout" sheetId="1" r:id="rId2"/>
-    <sheet name="2016national" sheetId="2" r:id="rId3"/>
-    <sheet name="sources" sheetId="3" r:id="rId4"/>
-    <sheet name="layout" sheetId="4" r:id="rId5"/>
+    <sheet name="2016national" sheetId="2" r:id="rId2"/>
+    <sheet name="turnout" sheetId="1" r:id="rId3"/>
+    <sheet name="compare" sheetId="6" r:id="rId4"/>
+    <sheet name="sources" sheetId="3" r:id="rId5"/>
+    <sheet name="layout" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="216">
   <si>
     <t>year</t>
   </si>
@@ -56,18 +57,6 @@
     <t>VoteTotalUsedHere</t>
   </si>
   <si>
-    <t xml:space="preserve"> SOS vote totals </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> AP_votes </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VEP </t>
-  </si>
-  <si>
-    <t>VAP</t>
-  </si>
-  <si>
     <t>PctNonCitizen</t>
   </si>
   <si>
@@ -563,9 +552,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>national</t>
-  </si>
-  <si>
     <t>Minnesota's voter turnout by election year, 1950-2016</t>
   </si>
   <si>
@@ -605,21 +591,12 @@
     <t>Turnout percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">SOS vote totals </t>
-  </si>
-  <si>
     <t>Official vote tallies</t>
   </si>
   <si>
     <t>AP vote tallies</t>
   </si>
   <si>
-    <t xml:space="preserve">AP_votes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEP </t>
-  </si>
-  <si>
     <t>Voter turnout by eligible voters</t>
   </si>
   <si>
@@ -656,34 +633,55 @@
     <t>OverseasEligible</t>
   </si>
   <si>
-    <t>Predicted 2018 Turnout Rate</t>
-  </si>
-  <si>
-    <t>Predicted 2018 Turnout</t>
-  </si>
-  <si>
-    <t>Voting-Eligible Population (VEP)</t>
-  </si>
-  <si>
-    <t>Voting-Age Population (VAP)</t>
-  </si>
-  <si>
-    <t>% Non-citizen</t>
-  </si>
-  <si>
-    <t>Total Ineligible Felon</t>
-  </si>
-  <si>
-    <t>Overseas Eligible</t>
-  </si>
-  <si>
-    <t>State Abv</t>
+    <t>2016national</t>
+  </si>
+  <si>
+    <t>2018national</t>
+  </si>
+  <si>
+    <t>State-by-state voter turnout, 2018 election</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>Comparison of 2014, 2016 and 2018 turnout by Minnesota precinct</t>
+  </si>
+  <si>
+    <t>turnout_rate</t>
+  </si>
+  <si>
+    <t>turnout_number</t>
+  </si>
+  <si>
+    <t>vep</t>
+  </si>
+  <si>
+    <t>vap</t>
+  </si>
+  <si>
+    <t>sos_vote_total</t>
+  </si>
+  <si>
+    <t>ap_votes</t>
+  </si>
+  <si>
+    <t>vote_tally</t>
+  </si>
+  <si>
+    <t>sos_vote_totals</t>
+  </si>
+  <si>
+    <t>Voter turnout by all voters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1161,11 +1159,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1523,279 +1523,285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88671AB-1DC8-A042-9816-25EC630C9433}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="3" t="s">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
-      </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5">
         <v>0.64216297677525458</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2610000</v>
       </c>
-      <c r="D2">
-        <v>4064388.7835244243</v>
-      </c>
       <c r="E2">
+        <v>4064388.7835244201</v>
+      </c>
+      <c r="F2">
         <v>4335998.3329999996</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4.5934268E-2</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10158</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96852</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>7075</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>72438.639999999985</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="5">
         <v>0.62135972022010011</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>2550000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4103902.9679888659</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4445013</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>7.0269317999999997E-2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>18576</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>10186</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>28762</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.61216713007928958</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2655000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>4337050.895980183</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4549459</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.1599224000000002E-2</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>22889</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>44489</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>20401</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>68648.73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.61191487975566117</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1905000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3113178.0955558238</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>3339282.3330000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6.3168734000000004E-2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15166</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>15166</v>
-      </c>
-      <c r="L5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5">
         <v>0.60240196006369551</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>495000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>821710.47376349964</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>835370.66669999994</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1.180936E-2</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3795</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>3795</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5">
         <v>0.59467061859876214</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1375000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>2312204.3648969042</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2431468</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3.6048122000000002E-2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8888</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>29254</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6051</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>31613.78</v>
-      </c>
-      <c r="L7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5">
         <v>0.58713562453506751</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>630000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1073005.9183495727</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1092942.3330000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.8241048999999999E-2</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
         <v>0</v>
       </c>
@@ -1805,137 +1811,137 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>28</v>
+      <c r="K8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9">
+        <v>92</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="5">
         <v>0.57612470624005874</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>325000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>564113.97824098787</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>578459.66669999994</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.1703653999999999E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1791</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>1791</v>
-      </c>
-      <c r="L9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10">
+        <v>153</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="5">
         <v>0.57495852474869347</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>300000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>521776.76664786541</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>554425.66669999994</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4.1026113000000003E-2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>4317</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>6621</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1812</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9902.9699999999993</v>
-      </c>
-      <c r="L10" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="5">
         <v>0.56562495525372869</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>4250000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7513812.7491095755</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7841291.3329999996</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.6598128000000001E-2</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>40502</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>40502</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.5524862674216896</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>275000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>497749.92830745602</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>508992</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>2.2086932E-2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1945,2066 +1951,1462 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="L12" t="s">
-        <v>64</v>
+      <c r="K12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13">
+        <v>86</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="5">
         <v>0.55028681594873441</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3950000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>7178074.9338686466</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>8063141</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7.1602193999999994E-2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>51092</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>410964</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>22386</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>307727.48</v>
-      </c>
-      <c r="L13" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
         <v>0.54819295808766511</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>8300000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>15140654.175774168</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>17168711.670000002</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.105344356</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>92847</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>214066</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4566</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>219430.62</v>
-      </c>
-      <c r="L14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5">
         <v>0.54224798647193551</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3330000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6141101.6418266529</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>6673762.6670000004</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6.8834340999999993E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>36959</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>60821</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1650</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>73276.97</v>
-      </c>
-      <c r="L15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5">
         <v>0.54123195338564323</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>575000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1062391.0809462059</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1096918</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.8907282999999999E-2</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2818</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>2818</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17">
+        <v>101</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="5">
         <v>0.53871112524471565</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>345000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>640417.44050353486</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>663320.66669999994</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2.4832976E-2</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3744</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>2687</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>6431</v>
-      </c>
-      <c r="L17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="5">
         <v>0.5354589359136791</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2700000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5042403.4765483206</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5546080</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>8.9233570999999998E-2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>8780</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>8780</v>
-      </c>
-      <c r="L18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5">
         <v>0.53165009299522037</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2430000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>4570675.3972520158</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>4764891.6670000004</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2.5079865E-2</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>31956</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>43799</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>17792</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>74713.429999999993</v>
-      </c>
-      <c r="L19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="5">
         <v>0.5259784519985149</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>1375000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>2614175.5328103863</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2856023.3330000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>7.8428560999999994E-2</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>14475</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>3379</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>17854</v>
-      </c>
-      <c r="L20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5">
         <v>0.51095544835422291</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>363000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>710433.75928217534</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>769716.33330000006</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5.6990377000000002E-2</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>6254</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>15395</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>387</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>15416.15</v>
-      </c>
-      <c r="L21" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="5">
         <v>0.50668536743873627</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1050000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2072291.9339622657</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>2211695.6669999999</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5.2207885000000002E-2</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>9613</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>16654</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>4830</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>23935.78</v>
-      </c>
-      <c r="L22" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="5">
         <v>0.50575954060604833</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>690000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1364284.6938155186</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>1458088.3330000001</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5.4830635000000003E-2</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5079</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>13489</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1088</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>13855.73</v>
-      </c>
-      <c r="L23" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5">
         <v>0.50469412831735316</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>4925000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>9758385.7700503021</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>10178260.67</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3.6526564999999997E-2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>48098</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>48098</v>
-      </c>
-      <c r="L24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="5">
         <v>0.49924741913340986</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2150000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4306481.951838539</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4742399</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>8.7832139000000004E-2</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>19382</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>19382</v>
-      </c>
-      <c r="L25" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26">
+        <v>156</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="5">
         <v>0.4984767148467602</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2650000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5316196.16538087</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>5903135</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>8.5780038000000003E-2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>18335</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>89317</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>11322</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>80567.69</v>
-      </c>
-      <c r="L26" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="5">
         <v>0.49776459754996588</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4400000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>8839519.76829434</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>9113230</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.4365042E-2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>51666</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>51666</v>
-      </c>
-      <c r="L27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="5">
         <v>0.49417002675410371</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>605000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1224274.9807669835</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1314172.3330000001</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4.4454765E-2</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>7949</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>32409</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>5054</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>31476.129999999997</v>
-      </c>
-      <c r="L28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5">
         <v>0.49161868414945492</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>3725000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>7577010.6387323113</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>8117590.3329999996</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>5.5002908000000003E-2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>34357</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>82466</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>12726</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>94088.62</v>
-      </c>
-      <c r="L29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="5">
         <v>0.48903009980518602</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>4410000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>9017849.8251064774</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>9902219.3330000006</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>8.5067041999999995E-2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>42017</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>42017</v>
-      </c>
-      <c r="L30" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>164</v>
-      </c>
-      <c r="B31">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="5">
         <v>0.48873619587138112</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2400000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>4910624.6279160362</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>5519036</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>9.4079249000000004E-2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>37582</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>77373</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>7500</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>89184.609999999986</v>
-      </c>
-      <c r="L31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0.48458214880571138</v>
+      </c>
+      <c r="D32">
+        <v>114223000</v>
+      </c>
+      <c r="E32">
+        <v>235714419.69439247</v>
+      </c>
+      <c r="F32">
+        <v>255152702.69999999</v>
+      </c>
+      <c r="G32">
+        <v>8.2729255000000002E-2</v>
+      </c>
+      <c r="H32">
+        <v>1416810</v>
+      </c>
+      <c r="I32">
+        <v>2126035</v>
+      </c>
+      <c r="J32">
+        <v>494442</v>
+      </c>
+      <c r="K32">
+        <v>3123092</v>
+      </c>
+      <c r="L32">
+        <v>4793402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.4837310682131204</v>
+      </c>
+      <c r="D33">
+        <v>204000</v>
+      </c>
+      <c r="E33">
+        <v>421721.93064540246</v>
+      </c>
+      <c r="F33">
+        <v>438237.3333</v>
+      </c>
+      <c r="G33">
+        <v>2.4394961E-2</v>
+      </c>
+      <c r="H33">
+        <v>2323</v>
+      </c>
+      <c r="I33">
+        <v>4666</v>
+      </c>
+      <c r="J33">
+        <v>842</v>
+      </c>
+      <c r="K33">
+        <v>5824.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.47591697315091619</v>
+      </c>
+      <c r="D34">
+        <v>1580000</v>
+      </c>
+      <c r="E34">
+        <v>3319906.8096673498</v>
+      </c>
+      <c r="F34">
+        <v>3469060.6669999999</v>
+      </c>
+      <c r="G34">
+        <v>2.4007180999999999E-2</v>
+      </c>
+      <c r="H34">
+        <v>22868</v>
+      </c>
+      <c r="I34">
+        <v>48457</v>
+      </c>
+      <c r="J34">
+        <v>15383</v>
+      </c>
+      <c r="K34">
+        <v>65871.489999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.47499895969476236</v>
+      </c>
+      <c r="D35">
+        <v>975000</v>
+      </c>
+      <c r="E35">
+        <v>2052636.074459072</v>
+      </c>
+      <c r="F35">
+        <v>2380512</v>
+      </c>
+      <c r="G35">
+        <v>0.12646449400000001</v>
+      </c>
+      <c r="H35">
+        <v>13742</v>
+      </c>
+      <c r="I35">
+        <v>13724</v>
+      </c>
+      <c r="J35">
+        <v>5261</v>
+      </c>
+      <c r="K35">
+        <v>26825.68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.47261374372932091</v>
+      </c>
+      <c r="D36">
+        <v>375000</v>
+      </c>
+      <c r="E36">
+        <v>793459.78608436952</v>
+      </c>
+      <c r="F36">
+        <v>856988.33330000006</v>
+      </c>
+      <c r="G36">
+        <v>7.0585030000000007E-2</v>
+      </c>
+      <c r="H36">
+        <v>3038</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.47099735278066951</v>
+      </c>
+      <c r="D37">
+        <v>1715000</v>
+      </c>
+      <c r="E37">
+        <v>3641209.4247982497</v>
+      </c>
+      <c r="F37">
+        <v>3802714</v>
+      </c>
+      <c r="G37">
+        <v>2.4856375E-2</v>
+      </c>
+      <c r="H37">
+        <v>28680</v>
+      </c>
+      <c r="I37">
+        <v>52177</v>
+      </c>
+      <c r="J37">
+        <v>8562</v>
+      </c>
+      <c r="K37">
+        <v>66982.89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.47020582088702867</v>
+      </c>
+      <c r="D38">
+        <v>2875000</v>
+      </c>
+      <c r="E38">
+        <v>6114343.7028839877</v>
+      </c>
+      <c r="F38">
+        <v>7074259.3329999996</v>
+      </c>
+      <c r="G38">
+        <v>0.11960939800000001</v>
+      </c>
+      <c r="H38">
+        <v>18504</v>
+      </c>
+      <c r="I38">
+        <v>140589</v>
+      </c>
+      <c r="J38">
+        <v>15128</v>
+      </c>
+      <c r="K38">
+        <v>113767.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.4655098189828919</v>
+      </c>
+      <c r="D39">
+        <v>690000</v>
+      </c>
+      <c r="E39">
+        <v>1482245.8557535999</v>
+      </c>
+      <c r="F39">
+        <v>1610112</v>
+      </c>
+      <c r="G39">
+        <v>6.8892825000000005E-2</v>
+      </c>
+      <c r="H39">
+        <v>6914</v>
+      </c>
+      <c r="I39">
+        <v>12714</v>
+      </c>
+      <c r="J39">
+        <v>2780</v>
+      </c>
+      <c r="K39">
+        <v>16940.98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0.46203675312098569</v>
+      </c>
+      <c r="D40">
+        <v>8350000</v>
+      </c>
+      <c r="E40">
+        <v>18072155.393693384</v>
+      </c>
+      <c r="F40">
+        <v>21390151.670000002</v>
+      </c>
+      <c r="G40">
+        <v>0.13267974299999999</v>
+      </c>
+      <c r="H40">
+        <v>155327</v>
+      </c>
+      <c r="I40">
+        <v>374285</v>
+      </c>
+      <c r="J40">
+        <v>111287</v>
+      </c>
+      <c r="K40">
+        <v>479956.44999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.45835523533698619</v>
+      </c>
+      <c r="D41">
+        <v>11750000</v>
+      </c>
+      <c r="E41">
+        <v>25635138.630763784</v>
+      </c>
+      <c r="F41">
+        <v>30836229</v>
+      </c>
+      <c r="G41">
+        <v>0.16443970399999999</v>
+      </c>
+      <c r="H41">
+        <v>130390</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>130390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0.44722175689716381</v>
+      </c>
+      <c r="D42">
+        <v>2250000</v>
+      </c>
+      <c r="E42">
+        <v>5031061.1353315152</v>
+      </c>
+      <c r="F42">
+        <v>5290992.6670000004</v>
+      </c>
+      <c r="G42">
+        <v>3.4822653000000002E-2</v>
+      </c>
+      <c r="H42">
+        <v>27906</v>
+      </c>
+      <c r="I42">
+        <v>62609</v>
+      </c>
+      <c r="J42">
+        <v>12092</v>
+      </c>
+      <c r="K42">
+        <v>75685.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.44511193488240752</v>
+      </c>
+      <c r="D43">
+        <v>1700000</v>
+      </c>
+      <c r="E43">
+        <v>3819264.0250123078</v>
+      </c>
+      <c r="F43">
+        <v>3996952.3330000001</v>
+      </c>
+      <c r="G43">
+        <v>3.3623100000000003E-2</v>
+      </c>
+      <c r="H43">
+        <v>20350</v>
+      </c>
+      <c r="I43">
+        <v>32634</v>
+      </c>
+      <c r="J43">
+        <v>4347</v>
+      </c>
+      <c r="K43">
+        <v>43298.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>117</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0.44179770717641409</v>
+      </c>
+      <c r="D44">
+        <v>2175000</v>
+      </c>
+      <c r="E44">
+        <v>4923067.6498995535</v>
+      </c>
+      <c r="F44">
+        <v>5139351.6670000004</v>
+      </c>
+      <c r="G44">
+        <v>3.7229602000000001E-2</v>
+      </c>
+      <c r="H44">
+        <v>24948</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>24948</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.42524534042374601</v>
+      </c>
+      <c r="D45">
+        <v>1190000</v>
+      </c>
+      <c r="E45">
+        <v>2798384.5721018263</v>
+      </c>
+      <c r="F45">
+        <v>2987069.6669999999</v>
+      </c>
+      <c r="G45">
+        <v>4.7192992000000003E-2</v>
+      </c>
+      <c r="H45">
+        <v>26691</v>
+      </c>
+      <c r="I45">
+        <v>33562</v>
+      </c>
+      <c r="J45">
+        <v>1895</v>
+      </c>
+      <c r="K45">
+        <v>47716.34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0.41985039145567432</v>
+      </c>
+      <c r="D46">
+        <v>590000</v>
+      </c>
+      <c r="E46">
+        <v>1405262.4744599988</v>
+      </c>
+      <c r="F46">
+        <v>1435237.6669999999</v>
+      </c>
+      <c r="G46">
+        <v>1.0848435E-2</v>
+      </c>
+      <c r="H46">
+        <v>7137</v>
+      </c>
+      <c r="I46">
+        <v>6523</v>
+      </c>
+      <c r="J46">
+        <v>3550</v>
+      </c>
+      <c r="K46">
+        <v>14405.11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="B32">
-        <v>0.48458214880571138</v>
-      </c>
-      <c r="C32">
-        <v>114223000</v>
-      </c>
-      <c r="D32">
-        <v>235714419.69439247</v>
-      </c>
-      <c r="E32">
-        <v>255152702.69999999</v>
-      </c>
-      <c r="F32">
-        <v>8.2729255000000002E-2</v>
-      </c>
-      <c r="G32">
-        <v>1416810</v>
-      </c>
-      <c r="H32">
-        <v>2126035</v>
-      </c>
-      <c r="I32">
-        <v>494442</v>
-      </c>
-      <c r="J32">
-        <v>3123092</v>
-      </c>
-      <c r="K32">
-        <v>4793402</v>
-      </c>
-      <c r="L32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33">
-        <v>0.4837310682131204</v>
-      </c>
-      <c r="C33">
-        <v>204000</v>
-      </c>
-      <c r="D33">
-        <v>421721.93064540246</v>
-      </c>
-      <c r="E33">
-        <v>438237.3333</v>
-      </c>
-      <c r="F33">
-        <v>2.4394961E-2</v>
-      </c>
-      <c r="G33">
-        <v>2323</v>
-      </c>
-      <c r="H33">
-        <v>4666</v>
-      </c>
-      <c r="I33">
-        <v>842</v>
-      </c>
-      <c r="J33">
-        <v>5824.62</v>
-      </c>
-      <c r="L33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34">
-        <v>0.47591697315091619</v>
-      </c>
-      <c r="C34">
-        <v>1580000</v>
-      </c>
-      <c r="D34">
-        <v>3319906.8096673498</v>
-      </c>
-      <c r="E34">
-        <v>3469060.6669999999</v>
-      </c>
-      <c r="F34">
-        <v>2.4007180999999999E-2</v>
-      </c>
-      <c r="G34">
-        <v>22868</v>
-      </c>
-      <c r="H34">
-        <v>48457</v>
-      </c>
-      <c r="I34">
-        <v>15383</v>
-      </c>
-      <c r="J34">
-        <v>65871.489999999991</v>
-      </c>
-      <c r="L34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35">
-        <v>0.47499895969476236</v>
-      </c>
-      <c r="C35">
-        <v>975000</v>
-      </c>
-      <c r="D35">
-        <v>2052636.074459072</v>
-      </c>
-      <c r="E35">
-        <v>2380512</v>
-      </c>
-      <c r="F35">
-        <v>0.12646449400000001</v>
-      </c>
-      <c r="G35">
-        <v>13742</v>
-      </c>
-      <c r="H35">
-        <v>13724</v>
-      </c>
-      <c r="I35">
-        <v>5261</v>
-      </c>
-      <c r="J35">
-        <v>26825.68</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="C47" s="5">
+        <v>0.40977194926138727</v>
+      </c>
+      <c r="D47">
+        <v>890000</v>
+      </c>
+      <c r="E47">
+        <v>2171939.7865183852</v>
+      </c>
+      <c r="F47">
+        <v>2319740.3330000001</v>
+      </c>
+      <c r="G47">
+        <v>3.8437223E-2</v>
+      </c>
+      <c r="H47">
+        <v>17242</v>
+      </c>
+      <c r="I47">
+        <v>30881</v>
+      </c>
+      <c r="J47">
+        <v>23792</v>
+      </c>
+      <c r="K47">
+        <v>58636.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.40879817968426341</v>
+      </c>
+      <c r="D48">
+        <v>5630000</v>
+      </c>
+      <c r="E48">
+        <v>13772076.980255511</v>
+      </c>
+      <c r="F48">
+        <v>15748183.33</v>
+      </c>
+      <c r="G48">
+        <v>0.119713132</v>
+      </c>
+      <c r="H48">
+        <v>46416</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>44426</v>
+      </c>
+      <c r="K48">
+        <v>90842</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C49" s="5">
+        <v>0.40816466856063888</v>
+      </c>
+      <c r="D49">
+        <v>216000</v>
+      </c>
+      <c r="E49">
+        <v>529198.1806306442</v>
+      </c>
+      <c r="F49">
+        <v>577553.33330000006</v>
+      </c>
+      <c r="G49">
+        <v>8.3724134000000006E-2</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>133</v>
       </c>
-      <c r="B36">
-        <v>0.47261374372932091</v>
-      </c>
-      <c r="C36">
-        <v>375000</v>
-      </c>
-      <c r="D36">
-        <v>793459.78608436952</v>
-      </c>
-      <c r="E36">
-        <v>856988.33330000006</v>
-      </c>
-      <c r="F36">
-        <v>7.0585030000000007E-2</v>
-      </c>
-      <c r="G36">
-        <v>3038</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>3038</v>
-      </c>
-      <c r="L36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37">
-        <v>0.47099735278066951</v>
-      </c>
-      <c r="C37">
-        <v>1715000</v>
-      </c>
-      <c r="D37">
-        <v>3641209.4247982497</v>
-      </c>
-      <c r="E37">
-        <v>3802714</v>
-      </c>
-      <c r="F37">
-        <v>2.4856375E-2</v>
-      </c>
-      <c r="G37">
-        <v>28680</v>
-      </c>
-      <c r="H37">
-        <v>52177</v>
-      </c>
-      <c r="I37">
-        <v>8562</v>
-      </c>
-      <c r="J37">
-        <v>66982.89</v>
-      </c>
-      <c r="L37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38">
-        <v>0.47020582088702867</v>
-      </c>
-      <c r="C38">
-        <v>2875000</v>
-      </c>
-      <c r="D38">
-        <v>6114343.7028839877</v>
-      </c>
-      <c r="E38">
-        <v>7074259.3329999996</v>
-      </c>
-      <c r="F38">
-        <v>0.11960939800000001</v>
-      </c>
-      <c r="G38">
-        <v>18504</v>
-      </c>
-      <c r="H38">
-        <v>140589</v>
-      </c>
-      <c r="I38">
-        <v>15128</v>
-      </c>
-      <c r="J38">
-        <v>113767.73</v>
-      </c>
-      <c r="L38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39">
-        <v>0.4655098189828919</v>
-      </c>
-      <c r="C39">
-        <v>690000</v>
-      </c>
-      <c r="D39">
-        <v>1482245.8557535999</v>
-      </c>
-      <c r="E39">
-        <v>1610112</v>
-      </c>
-      <c r="F39">
-        <v>6.8892825000000005E-2</v>
-      </c>
-      <c r="G39">
-        <v>6914</v>
-      </c>
-      <c r="H39">
-        <v>12714</v>
-      </c>
-      <c r="I39">
-        <v>2780</v>
-      </c>
-      <c r="J39">
-        <v>16940.98</v>
-      </c>
-      <c r="L39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>152</v>
-      </c>
-      <c r="B40">
-        <v>0.46203675312098569</v>
-      </c>
-      <c r="C40">
-        <v>8350000</v>
-      </c>
-      <c r="D40">
-        <v>18072155.393693384</v>
-      </c>
-      <c r="E40">
-        <v>21390151.670000002</v>
-      </c>
-      <c r="F40">
-        <v>0.13267974299999999</v>
-      </c>
-      <c r="G40">
-        <v>155327</v>
-      </c>
-      <c r="H40">
-        <v>374285</v>
-      </c>
-      <c r="I40">
-        <v>111287</v>
-      </c>
-      <c r="J40">
-        <v>479956.44999999995</v>
-      </c>
-      <c r="L40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41">
-        <v>0.45835523533698619</v>
-      </c>
-      <c r="C41">
-        <v>11750000</v>
-      </c>
-      <c r="D41">
-        <v>25635138.630763784</v>
-      </c>
-      <c r="E41">
-        <v>30836229</v>
-      </c>
-      <c r="F41">
-        <v>0.16443970399999999</v>
-      </c>
-      <c r="G41">
-        <v>130390</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>130390</v>
-      </c>
-      <c r="L41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B42">
-        <v>0.44722175689716381</v>
-      </c>
-      <c r="C42">
-        <v>2250000</v>
-      </c>
-      <c r="D42">
-        <v>5031061.1353315152</v>
-      </c>
-      <c r="E42">
-        <v>5290992.6670000004</v>
-      </c>
-      <c r="F42">
-        <v>3.4822653000000002E-2</v>
-      </c>
-      <c r="G42">
-        <v>27906</v>
-      </c>
-      <c r="H42">
-        <v>62609</v>
-      </c>
-      <c r="I42">
-        <v>12092</v>
-      </c>
-      <c r="J42">
-        <v>75685.13</v>
-      </c>
-      <c r="L42" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B43">
-        <v>0.44511193488240752</v>
-      </c>
-      <c r="C43">
-        <v>1700000</v>
-      </c>
-      <c r="D43">
-        <v>3819264.0250123078</v>
-      </c>
-      <c r="E43">
-        <v>3996952.3330000001</v>
-      </c>
-      <c r="F43">
-        <v>3.3623100000000003E-2</v>
-      </c>
-      <c r="G43">
-        <v>20350</v>
-      </c>
-      <c r="H43">
-        <v>32634</v>
-      </c>
-      <c r="I43">
-        <v>4347</v>
-      </c>
-      <c r="J43">
-        <v>43298.38</v>
-      </c>
-      <c r="L43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44">
-        <v>0.44179770717641409</v>
-      </c>
-      <c r="C44">
-        <v>2175000</v>
-      </c>
-      <c r="D44">
-        <v>4923067.6498995535</v>
-      </c>
-      <c r="E44">
-        <v>5139351.6670000004</v>
-      </c>
-      <c r="F44">
-        <v>3.7229602000000001E-2</v>
-      </c>
-      <c r="G44">
-        <v>24948</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>24948</v>
-      </c>
-      <c r="L44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B45">
-        <v>0.42524534042374601</v>
-      </c>
-      <c r="C45">
-        <v>1190000</v>
-      </c>
-      <c r="D45">
-        <v>2798384.5721018263</v>
-      </c>
-      <c r="E45">
-        <v>2987069.6669999999</v>
-      </c>
-      <c r="F45">
-        <v>4.7192992000000003E-2</v>
-      </c>
-      <c r="G45">
-        <v>26691</v>
-      </c>
-      <c r="H45">
-        <v>33562</v>
-      </c>
-      <c r="I45">
-        <v>1895</v>
-      </c>
-      <c r="J45">
-        <v>47716.34</v>
-      </c>
-      <c r="L45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46">
-        <v>0.41985039145567432</v>
-      </c>
-      <c r="C46">
-        <v>590000</v>
-      </c>
-      <c r="D46">
-        <v>1405262.4744599988</v>
-      </c>
-      <c r="E46">
-        <v>1435237.6669999999</v>
-      </c>
-      <c r="F46">
-        <v>1.0848435E-2</v>
-      </c>
-      <c r="G46">
-        <v>7137</v>
-      </c>
-      <c r="H46">
-        <v>6523</v>
-      </c>
-      <c r="I46">
-        <v>3550</v>
-      </c>
-      <c r="J46">
-        <v>14405.11</v>
-      </c>
-      <c r="L46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47">
-        <v>0.40977194926138727</v>
-      </c>
-      <c r="C47">
-        <v>890000</v>
-      </c>
-      <c r="D47">
-        <v>2171939.7865183852</v>
-      </c>
-      <c r="E47">
-        <v>2319740.3330000001</v>
-      </c>
-      <c r="F47">
-        <v>3.8437223E-2</v>
-      </c>
-      <c r="G47">
-        <v>17242</v>
-      </c>
-      <c r="H47">
-        <v>30881</v>
-      </c>
-      <c r="I47">
-        <v>23792</v>
-      </c>
-      <c r="J47">
-        <v>58636.17</v>
-      </c>
-      <c r="L47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48">
-        <v>0.40879817968426341</v>
-      </c>
-      <c r="C48">
-        <v>5630000</v>
-      </c>
-      <c r="D48">
-        <v>13772076.980255511</v>
-      </c>
-      <c r="E48">
-        <v>15748183.33</v>
-      </c>
-      <c r="F48">
-        <v>0.119713132</v>
-      </c>
-      <c r="G48">
-        <v>46416</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>44426</v>
-      </c>
-      <c r="J48">
-        <v>90842</v>
-      </c>
-      <c r="L48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49">
-        <v>0.40816466856063888</v>
-      </c>
-      <c r="C49">
-        <v>216000</v>
-      </c>
-      <c r="D49">
-        <v>529198.1806306442</v>
-      </c>
-      <c r="E49">
-        <v>577553.33330000006</v>
-      </c>
-      <c r="F49">
-        <v>8.3724134000000006E-2</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>138</v>
-      </c>
-      <c r="B50">
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="5">
         <v>0.40658231167853276</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>895000</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>2201276.2835281389</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>2278270.3330000001</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1.4322646E-2</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>19150</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>29067</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>8645</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>44363.19</v>
       </c>
-      <c r="L50" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>170</v>
-      </c>
-      <c r="B51">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="5">
         <v>0.40335177937144967</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>840000</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>2082549.3848297561</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>2242122</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>6.8563001999999998E-2</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>5846</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>5846</v>
       </c>
-      <c r="L51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>167</v>
-      </c>
-      <c r="B52">
+        <v>162</v>
+      </c>
+      <c r="B52" t="s">
+        <v>163</v>
+      </c>
+      <c r="C52" s="5">
         <v>0.3844776151281119</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>390000</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1014363.3456268917</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>1122119.3330000001</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>9.1150722000000003E-2</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>5474</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
         <v>5474</v>
       </c>
-      <c r="L52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53">
+        <v>77</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="5">
         <v>0.35353831394280044</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>1200000</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>3394257.2917122357</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>3581751.3330000001</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>2.7401360999999999E-2</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>35543</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>40174</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>30907</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>89349.18</v>
       </c>
-      <c r="L53" t="s">
-        <v>81</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L53">
-    <sortCondition descending="1" ref="B1"/>
+  <sortState ref="B2:L53">
+    <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1950</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1879000</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1067967</v>
-      </c>
-      <c r="D2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1954</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1920000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1168101</v>
-      </c>
-      <c r="D3">
-        <v>0.61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1958</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1960000</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1178173</v>
-      </c>
-      <c r="D4">
-        <v>0.6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1962</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2033000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1267502</v>
-      </c>
-      <c r="D5">
-        <v>0.62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1966</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2124000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1312288</v>
-      </c>
-      <c r="D6">
-        <v>0.62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1970</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2226000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1388525</v>
-      </c>
-      <c r="D7">
-        <v>0.62</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1974</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2617000</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1296209</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1978</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2804000</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1624911</v>
-      </c>
-      <c r="D9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1982</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2943169</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1834737</v>
-      </c>
-      <c r="D10">
-        <v>0.62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1986</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3024070</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1456579</v>
-      </c>
-      <c r="D11">
-        <v>0.48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1990</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3136830</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1843104</v>
-      </c>
-      <c r="D12">
-        <v>0.59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1994</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3253779</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1794618</v>
-      </c>
-      <c r="D13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1998</v>
-      </c>
-      <c r="B14" s="1">
-        <v>3378089</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2105984</v>
-      </c>
-      <c r="D14">
-        <v>0.62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2002</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3518184</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2282860</v>
-      </c>
-      <c r="D15">
-        <v>0.65</v>
-      </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2006</v>
-      </c>
-      <c r="B16" s="1">
-        <v>3667707</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2217818</v>
-      </c>
-      <c r="D16">
-        <v>0.6</v>
-      </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2010</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3803192</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2123369</v>
-      </c>
-      <c r="D17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="1">
-        <v>3945136</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1992566</v>
-      </c>
-      <c r="D18">
-        <v>0.51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1952</v>
-      </c>
-      <c r="B19" s="1">
-        <v>1899000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1466326</v>
-      </c>
-      <c r="D19">
-        <v>0.77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1956</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1940000</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1613138</v>
-      </c>
-      <c r="D20">
-        <v>0.83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1960</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1987000</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1577509</v>
-      </c>
-      <c r="D21">
-        <v>0.79</v>
-      </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>1964</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2078000</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1586173</v>
-      </c>
-      <c r="D22">
-        <v>0.76</v>
-      </c>
-      <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>1968</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2170000</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1606307</v>
-      </c>
-      <c r="D23">
-        <v>0.74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1972</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2523000</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1773838</v>
-      </c>
-      <c r="D24">
-        <v>0.7</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1976</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2710000</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1978590</v>
-      </c>
-      <c r="D25">
-        <v>0.73</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1980</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2882406</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2079411</v>
-      </c>
-      <c r="D26">
-        <v>0.72</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1984</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2982015</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2115317</v>
-      </c>
-      <c r="D27">
-        <v>0.71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1988</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3087194</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2125119</v>
-      </c>
-      <c r="D28">
-        <v>0.69</v>
-      </c>
-      <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1992</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3187255</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2355796</v>
-      </c>
-      <c r="D29">
-        <v>0.74</v>
-      </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1996</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3319509</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2211161</v>
-      </c>
-      <c r="D30">
-        <v>0.67</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>2000</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3506432</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2458303</v>
-      </c>
-      <c r="D31">
-        <v>0.7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>2004</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3609185</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2842912</v>
-      </c>
-      <c r="D32">
-        <v>0.79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>2008</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3740142</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2921498</v>
-      </c>
-      <c r="D33">
-        <v>0.78</v>
-      </c>
-      <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>2012</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3861043</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2950780</v>
-      </c>
-      <c r="D34">
-        <v>0.76</v>
-      </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>2016</v>
-      </c>
-      <c r="D35">
-        <v>0.75</v>
-      </c>
-      <c r="E35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J1" sqref="J1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4023,51 +3425,51 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>2938848</v>
@@ -4106,7 +3508,7 @@
         <v>27114</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q2">
         <v>0.76</v>
@@ -4114,10 +3516,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>766253</v>
@@ -4156,7 +3558,7 @@
         <v>36518</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q3">
         <v>0.7</v>
@@ -4164,10 +3566,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>740704</v>
@@ -4200,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q4">
         <v>0.68</v>
@@ -4208,10 +3610,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
         <v>2944620</v>
@@ -4244,7 +3646,7 @@
         <v>67986</v>
       </c>
       <c r="P5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="Q5">
         <v>0.73</v>
@@ -4252,10 +3654,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>1560199</v>
@@ -4294,7 +3696,7 @@
         <v>17319</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q6">
         <v>0.7</v>
@@ -4302,10 +3704,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>3231531</v>
@@ -4338,7 +3740,7 @@
         <v>10014</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q7">
         <v>0.66</v>
@@ -4346,10 +3748,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>2545498</v>
@@ -4388,7 +3790,7 @@
         <v>144231</v>
       </c>
       <c r="P8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q8">
         <v>0.7</v>
@@ -4396,10 +3798,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>441535</v>
@@ -4435,10 +3837,10 @@
         <v>16073</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>0.62</v>
@@ -4446,10 +3848,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1">
         <v>9390524</v>
@@ -4488,7 +3890,7 @@
         <v>3774</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>0.63</v>
@@ -4496,10 +3898,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>4785223</v>
@@ -4538,7 +3940,7 @@
         <v>-4227</v>
       </c>
       <c r="P11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>0.65</v>
@@ -4546,10 +3948,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>4688786</v>
@@ -4588,7 +3990,7 @@
         <v>59315</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q12">
         <v>0.65</v>
@@ -4596,10 +3998,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1">
         <v>3902270</v>
@@ -4638,7 +4040,7 @@
         <v>57483</v>
       </c>
       <c r="P13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q13">
         <v>0.66</v>
@@ -4646,10 +4048,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1">
         <v>1613506</v>
@@ -4688,7 +4090,7 @@
         <v>84689</v>
       </c>
       <c r="P14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q14">
         <v>0.61</v>
@@ -4696,10 +4098,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>1902703</v>
@@ -4738,7 +4140,7 @@
         <v>94128</v>
       </c>
       <c r="P15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q15">
         <v>0.63</v>
@@ -4746,10 +4148,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1">
         <v>314168</v>
@@ -4788,7 +4190,7 @@
         <v>22827</v>
       </c>
       <c r="P16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q16">
         <v>0.61</v>
@@ -4796,10 +4198,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1">
         <v>2788022</v>
@@ -4838,7 +4240,7 @@
         <v>12924</v>
       </c>
       <c r="P17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q17">
         <v>0.62</v>
@@ -4846,10 +4248,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1">
         <v>5325395</v>
@@ -4885,10 +4287,10 @@
         <v>51024</v>
       </c>
       <c r="O18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q18">
         <v>0.65</v>
@@ -4896,10 +4298,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1">
         <v>5970107</v>
@@ -4938,7 +4340,7 @@
         <v>-51260</v>
       </c>
       <c r="P19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q19">
         <v>0.6</v>
@@ -4946,10 +4348,10 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1">
         <v>691478</v>
@@ -4988,7 +4390,7 @@
         <v>3243</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q20">
         <v>0.6</v>
@@ -4996,10 +4398,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1">
         <v>5374280</v>
@@ -5032,7 +4434,7 @@
         <v>46465</v>
       </c>
       <c r="P21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q21">
         <v>0.59</v>
@@ -5040,10 +4442,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C22" s="1">
         <v>2027731</v>
@@ -5079,10 +4481,10 @@
         <v>90448</v>
       </c>
       <c r="O22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="Q22">
         <v>0.6</v>
@@ -5090,10 +4492,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C23" s="1">
         <v>2525643</v>
@@ -5132,7 +4534,7 @@
         <v>51100</v>
       </c>
       <c r="P23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q23">
         <v>0.67</v>
@@ -5140,10 +4542,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C24" s="1">
         <v>484570</v>
@@ -5182,7 +4584,7 @@
         <v>251</v>
       </c>
       <c r="P24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q24">
         <v>0.63</v>
@@ -5190,10 +4592,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C25" s="1">
         <v>4079471</v>
@@ -5232,7 +4634,7 @@
         <v>49907</v>
       </c>
       <c r="P25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q25">
         <v>0.59</v>
@@ -5240,10 +4642,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C26" s="1">
         <v>1923346</v>
@@ -5279,10 +4681,10 @@
         <v>68431</v>
       </c>
       <c r="O26" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q26">
         <v>0.56000000000000005</v>
@@ -5290,10 +4692,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C27" s="1">
         <v>343325</v>
@@ -5332,7 +4734,7 @@
         <v>6357</v>
       </c>
       <c r="P27" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q27">
         <v>0.6</v>
@@ -5340,10 +4742,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C28" s="1">
         <v>804444</v>
@@ -5382,7 +4784,7 @@
         <v>-1194</v>
       </c>
       <c r="P28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="Q28">
         <v>0.6</v>
@@ -5390,10 +4792,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1">
         <v>3612425</v>
@@ -5432,7 +4834,7 @@
         <v>-20294</v>
       </c>
       <c r="P29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q29">
         <v>0.62</v>
@@ -5440,10 +4842,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C30" s="1">
         <v>370047</v>
@@ -5479,10 +4881,10 @@
         <v>6139</v>
       </c>
       <c r="O30" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q30">
         <v>0.59</v>
@@ -5490,10 +4892,10 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C31" s="1">
         <v>255791</v>
@@ -5532,7 +4934,7 @@
         <v>7049</v>
       </c>
       <c r="P31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q31">
         <v>0.59</v>
@@ -5540,10 +4942,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1">
         <v>2078165</v>
@@ -5582,7 +4984,7 @@
         <v>-25684</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q32">
         <v>0.59</v>
@@ -5590,10 +4992,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C33" s="1">
         <v>1122990</v>
@@ -5629,10 +5031,10 @@
         <v>25199</v>
       </c>
       <c r="O33" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q33">
         <v>0.56000000000000005</v>
@@ -5640,10 +5042,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1">
         <v>287403</v>
@@ -5682,7 +5084,7 @@
         <v>7131</v>
       </c>
       <c r="P34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q34">
         <v>0.62</v>
@@ -5690,10 +5092,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1">
         <v>2717362</v>
@@ -5732,7 +5134,7 @@
         <v>-4667</v>
       </c>
       <c r="P35" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q35">
         <v>0.55000000000000004</v>
@@ -5740,10 +5142,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1">
         <v>1147143</v>
@@ -5779,10 +5181,10 @@
         <v>22521</v>
       </c>
       <c r="O36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q36">
         <v>0.56999999999999995</v>
@@ -5790,10 +5192,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1">
         <v>2089349</v>
@@ -5832,7 +5234,7 @@
         <v>4905</v>
       </c>
       <c r="P37" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="Q37">
         <v>0.56000000000000005</v>
@@ -5840,10 +5242,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1">
         <v>789365</v>
@@ -5882,7 +5284,7 @@
         <v>524</v>
       </c>
       <c r="P38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q38">
         <v>0.55000000000000004</v>
@@ -5890,10 +5292,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1">
         <v>421839</v>
@@ -5932,7 +5334,7 @@
         <v>8314</v>
       </c>
       <c r="P39" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q39">
         <v>0.57999999999999996</v>
@@ -5940,10 +5342,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1">
         <v>125742988</v>
@@ -5984,10 +5386,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1">
         <v>1162631</v>
@@ -6020,7 +5422,7 @@
         <v>47902</v>
       </c>
       <c r="P41" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Q41">
         <v>0.59</v>
@@ -6028,10 +5430,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1">
         <v>1125227</v>
@@ -6070,7 +5472,7 @@
         <v>3543</v>
       </c>
       <c r="P42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q42">
         <v>0.51</v>
@@ -6078,10 +5480,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C43" s="1">
         <v>7106870</v>
@@ -6120,7 +5522,7 @@
         <v>63914</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q43">
         <v>0.53</v>
@@ -6128,10 +5530,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C44" s="1">
         <v>1451056</v>
@@ -6167,10 +5569,10 @@
         <v>46208</v>
       </c>
       <c r="O44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Q44">
         <v>0.49</v>
@@ -6178,10 +5580,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="1">
         <v>2490799</v>
@@ -6220,7 +5622,7 @@
         <v>6108</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q45">
         <v>0.52</v>
@@ -6228,10 +5630,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B46" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C46" s="1">
         <v>8929462</v>
@@ -6270,7 +5672,7 @@
         <v>26225</v>
       </c>
       <c r="P46" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>0.5</v>
@@ -6278,10 +5680,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B47" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C47" s="1">
         <v>708226</v>
@@ -6314,7 +5716,7 @@
         <v>13639</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>0.46</v>
@@ -6322,10 +5724,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C48" s="1">
         <v>253624</v>
@@ -6364,7 +5766,7 @@
         <v>7036</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>0.59</v>
@@ -6372,10 +5774,10 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C49" s="1">
         <v>2194290</v>
@@ -6411,10 +5813,10 @@
         <v>79928</v>
       </c>
       <c r="O49" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>0.65</v>
@@ -6422,10 +5824,10 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C50" s="1">
         <v>1970787</v>
@@ -6464,7 +5866,7 @@
         <v>10734</v>
       </c>
       <c r="P50" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="Q50">
         <v>0.53</v>
@@ -6472,10 +5874,10 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C51" s="1">
         <v>429262</v>
@@ -6514,7 +5916,7 @@
         <v>437</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q51">
         <v>0.44</v>
@@ -6522,10 +5924,10 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C52" s="1">
         <v>801246</v>
@@ -6564,7 +5966,7 @@
         <v>-2</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q52">
         <v>0.56000000000000005</v>
@@ -6572,10 +5974,10 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C53" s="1">
         <v>8930459</v>
@@ -6614,7 +6016,7 @@
         <v>-38205</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>0.55000000000000004</v>
@@ -6625,55 +6027,720 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:C8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1950</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1879000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1067967</v>
+      </c>
+      <c r="D2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1952</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1899000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1466326</v>
+      </c>
+      <c r="D3">
+        <v>0.77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1954</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1920000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1168101</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1956</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1940000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1613138</v>
+      </c>
+      <c r="D5">
+        <v>0.83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1958</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1960000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1178173</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1960</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1987000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1577509</v>
+      </c>
+      <c r="D7">
+        <v>0.79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1962</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2033000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1267502</v>
+      </c>
+      <c r="D8">
+        <v>0.62</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1964</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2078000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1586173</v>
+      </c>
+      <c r="D9">
+        <v>0.76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1966</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2124000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1312288</v>
+      </c>
+      <c r="D10">
+        <v>0.62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1968</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2170000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1606307</v>
+      </c>
+      <c r="D11">
+        <v>0.74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1970</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2226000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1388525</v>
+      </c>
+      <c r="D12">
+        <v>0.62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1972</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2523000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1773838</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1974</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2617000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1296209</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1976</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2710000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1978590</v>
+      </c>
+      <c r="D15">
+        <v>0.73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1978</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2804000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1624911</v>
+      </c>
+      <c r="D16">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1980</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2882406</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2079411</v>
+      </c>
+      <c r="D17">
+        <v>0.72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1982</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2943169</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1834737</v>
+      </c>
+      <c r="D18">
+        <v>0.62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1984</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2982015</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2115317</v>
+      </c>
+      <c r="D19">
+        <v>0.71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1986</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3024070</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1456579</v>
+      </c>
+      <c r="D20">
+        <v>0.48</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1988</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3087194</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2125119</v>
+      </c>
+      <c r="D21">
+        <v>0.69</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1990</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3136830</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1843104</v>
+      </c>
+      <c r="D22">
+        <v>0.59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1992</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3187255</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2355796</v>
+      </c>
+      <c r="D23">
+        <v>0.74</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1994</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3253779</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1794618</v>
+      </c>
+      <c r="D24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1996</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3319509</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2211161</v>
+      </c>
+      <c r="D25">
+        <v>0.67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1998</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3378089</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2105984</v>
+      </c>
+      <c r="D26">
+        <v>0.62</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2000</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3506432</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2458303</v>
+      </c>
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3518184</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2282860</v>
+      </c>
+      <c r="D28">
+        <v>0.65</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3609185</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2842912</v>
+      </c>
+      <c r="D29">
+        <v>0.79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2006</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3667707</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2217818</v>
+      </c>
+      <c r="D30">
+        <v>0.6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2008</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3740142</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2921498</v>
+      </c>
+      <c r="D31">
+        <v>0.78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3803192</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2123369</v>
+      </c>
+      <c r="D32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2012</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3861043</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2950780</v>
+      </c>
+      <c r="D33">
+        <v>0.76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2014</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3945136</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1992566</v>
+      </c>
+      <c r="D34">
+        <v>0.51</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3972330</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2968281</v>
+      </c>
+      <c r="D35">
+        <v>0.75</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2018</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4064388</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2610000</v>
+      </c>
+      <c r="D36">
+        <v>0.64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E36">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0192EFE-F33B-B94F-8087-1DBB0767CA79}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6681,12 +6748,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B26"/>
+  <dimension ref="A2:C43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6696,12 +6763,12 @@
   <sheetData>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>184</v>
@@ -6709,7 +6776,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>185</v>
@@ -6717,167 +6784,277 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
         <v>193</v>
       </c>
-      <c r="B14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" t="s">
         <v>197</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
